--- a/R_Analysis/Algorithm_analysis/WallofFame/forplot.xlsx
+++ b/R_Analysis/Algorithm_analysis/WallofFame/forplot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
   <si>
     <t>TPR</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>PhC</t>
+  </si>
+  <si>
+    <t>dist_ax_avg</t>
   </si>
 </sst>
 </file>
@@ -447,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +489,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.61984549011738699</v>
       </c>
@@ -518,8 +524,12 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>(F17+F32+F47+F62)/4</f>
+        <v>0.38954868439089552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.63534664392495199</v>
       </c>
@@ -550,8 +560,12 @@
       <c r="J3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="0">(F18+F33+F48+F63)/4</f>
+        <v>0.39306757586761276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.67843884819905598</v>
       </c>
@@ -582,8 +596,12 @@
       <c r="J4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.40682752046189424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.67598073643021905</v>
       </c>
@@ -614,8 +632,12 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.40629627055683926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.68661583224641298</v>
       </c>
@@ -646,8 +668,12 @@
       <c r="J6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.40472399394556352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.64300050175614598</v>
       </c>
@@ -678,8 +704,12 @@
       <c r="J7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.39318998228860425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.63421976919217204</v>
       </c>
@@ -710,8 +740,12 @@
       <c r="J8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.38986938272353072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.64199698946312</v>
       </c>
@@ -742,8 +776,12 @@
       <c r="J9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.3910761936889825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.653662819869543</v>
       </c>
@@ -774,8 +812,12 @@
       <c r="J10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.39232534967441124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.71588058203713001</v>
       </c>
@@ -806,8 +848,12 @@
       <c r="J11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.40906691084638475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.64405928158754</v>
       </c>
@@ -838,8 +884,12 @@
       <c r="J12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.39389115981686973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.62949007786988198</v>
       </c>
@@ -870,8 +920,12 @@
       <c r="J13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.39132963501294227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.64556644059281498</v>
       </c>
@@ -902,8 +956,12 @@
       <c r="J14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.3953592817396745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.63350916855061501</v>
       </c>
@@ -934,8 +992,12 @@
       <c r="J15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.38880433248922319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.73951268525496106</v>
       </c>
@@ -966,8 +1028,12 @@
       <c r="J16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.41125206698698252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.75433403805496801</v>
       </c>
@@ -998,8 +1064,11 @@
       <c r="J17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.38954868439089552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.76701902748414297</v>
       </c>
@@ -1030,8 +1099,11 @@
       <c r="J18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.39306757586761276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.81888653981677195</v>
       </c>
@@ -1062,8 +1134,11 @@
       <c r="J19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.40682752046189424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.81494009866102801</v>
       </c>
@@ -1094,8 +1169,11 @@
       <c r="J20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.40629627055683926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.82692036645525002</v>
       </c>
@@ -1126,8 +1204,11 @@
       <c r="J21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.40472399394556352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.77034166960197203</v>
       </c>
@@ -1158,8 +1239,11 @@
       <c r="J22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.39318998228860425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.75378654455794203</v>
       </c>
@@ -1190,8 +1274,11 @@
       <c r="J23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0.38986938272353072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.76576259246213396</v>
       </c>
@@ -1222,8 +1309,11 @@
       <c r="J24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0.3910761936889825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.77527298344487405</v>
       </c>
@@ -1254,8 +1344,11 @@
       <c r="J25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.39232534967441124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.84501585065163698</v>
       </c>
@@ -1286,8 +1379,11 @@
       <c r="J26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.40906691084638475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.76841359773371098</v>
       </c>
@@ -1318,8 +1414,11 @@
       <c r="J27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0.39389115981686973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.74291784702549502</v>
       </c>
@@ -1350,8 +1449,11 @@
       <c r="J28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.39132963501294227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.76416430594900797</v>
       </c>
@@ -1382,8 +1484,11 @@
       <c r="J29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0.3953592817396745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.75</v>
       </c>
@@ -1414,8 +1519,11 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.38880433248922319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.85764872521246405</v>
       </c>
@@ -1446,8 +1554,11 @@
       <c r="J31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.41125206698698252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.58587890982257096</v>
       </c>
@@ -1478,8 +1589,11 @@
       <c r="J32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.38954868439089552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.60563380281690105</v>
       </c>
@@ -1510,8 +1624,11 @@
       <c r="J33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.39306757586761276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.654106456923358</v>
       </c>
@@ -1542,8 +1659,11 @@
       <c r="J34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0.40682752046189424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.65044814340588897</v>
       </c>
@@ -1574,8 +1694,11 @@
       <c r="J35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0.40629627055683926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.66142308395829497</v>
       </c>
@@ -1606,8 +1729,11 @@
       <c r="J36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0.40472399394556352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.61334552102376605</v>
       </c>
@@ -1638,8 +1764,11 @@
       <c r="J37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0.39318998228860425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.60420475319926803</v>
       </c>
@@ -1670,8 +1799,11 @@
       <c r="J38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0.38986938272353072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.60831809872029197</v>
       </c>
@@ -1702,8 +1834,11 @@
       <c r="J39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0.3910761936889825</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.62522851919561195</v>
       </c>
@@ -1734,8 +1869,11 @@
       <c r="J40" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0.39232534967441124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.69881170018281502</v>
       </c>
@@ -1766,8 +1904,11 @@
       <c r="J41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0.40906691084638475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.61917808219178005</v>
       </c>
@@ -1798,8 +1939,11 @@
       <c r="J42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0.39389115981686973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.59817351598173496</v>
       </c>
@@ -1830,8 +1974,11 @@
       <c r="J43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0.39132963501294227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.61461187214611801</v>
       </c>
@@ -1862,8 +2009,11 @@
       <c r="J44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0.3953592817396745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.59817351598173496</v>
       </c>
@@ -1894,8 +2044,11 @@
       <c r="J45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0.38880433248922319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.72602739726027399</v>
       </c>
@@ -1926,8 +2079,11 @@
       <c r="J46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0.41125206698698252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.71612349914236695</v>
       </c>
@@ -1958,8 +2114,11 @@
       <c r="J47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0.38954868439089552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.73542024013722096</v>
       </c>
@@ -1990,8 +2149,11 @@
       <c r="J48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0.39306757586761276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.766295025728988</v>
       </c>
@@ -2022,8 +2184,11 @@
       <c r="J49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0.40682752046189424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.77015437392795805</v>
       </c>
@@ -2054,8 +2219,11 @@
       <c r="J50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0.40629627055683926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.76886792452830099</v>
       </c>
@@ -2086,8 +2254,11 @@
       <c r="J51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0.40472399394556352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.734978540772532</v>
       </c>
@@ -2118,8 +2289,11 @@
       <c r="J52" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0.39318998228860425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.73712446351931304</v>
       </c>
@@ -2150,8 +2324,11 @@
       <c r="J53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0.38986938272353072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.74141630901287503</v>
       </c>
@@ -2182,8 +2359,11 @@
       <c r="J54" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0.3910761936889825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.75107296137338997</v>
       </c>
@@ -2214,8 +2394,11 @@
       <c r="J55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0.39232534967441124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.79399141630901204</v>
       </c>
@@ -2246,8 +2429,11 @@
       <c r="J56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0.40906691084638475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.72903225806451599</v>
       </c>
@@ -2278,8 +2464,11 @@
       <c r="J57" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>0.39389115981686973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.73978494623655899</v>
       </c>
@@ -2310,8 +2499,11 @@
       <c r="J58" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>0.39132963501294227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.74623655913978404</v>
       </c>
@@ -2342,8 +2534,11 @@
       <c r="J59" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0.3953592817396745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.74193548387096697</v>
       </c>
@@ -2374,8 +2569,11 @@
       <c r="J60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0.38880433248922319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.81505376344086</v>
       </c>
@@ -2406,8 +2604,11 @@
       <c r="J61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0.41125206698698252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.42281746031745998</v>
       </c>
@@ -2438,8 +2639,11 @@
       <c r="J62" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>0.38954868439089552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.43591269841269797</v>
       </c>
@@ -2470,8 +2674,11 @@
       <c r="J63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>0.39306757586761276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.46646825396825398</v>
       </c>
@@ -2502,8 +2709,11 @@
       <c r="J64" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0.40682752046189424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.464484126984127</v>
       </c>
@@ -2534,8 +2744,11 @@
       <c r="J65" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>0.40629627055683926</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.47837301587301501</v>
       </c>
@@ -2566,8 +2779,11 @@
       <c r="J66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0.40472399394556352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.45305514157973098</v>
       </c>
@@ -2598,8 +2814,11 @@
       <c r="J67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0.39318998228860425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.45057128663686002</v>
       </c>
@@ -2630,8 +2849,11 @@
       <c r="J68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>0.38986938272353072</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.458022851465474</v>
       </c>
@@ -2662,8 +2884,11 @@
       <c r="J69" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0.3910761936889825</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.46795827123695899</v>
       </c>
@@ -2694,8 +2919,11 @@
       <c r="J70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0.39232534967441124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.51614505712866299</v>
       </c>
@@ -2726,8 +2954,11 @@
       <c r="J71" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0.40906691084638475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.45787908820614398</v>
       </c>
@@ -2758,8 +2989,11 @@
       <c r="J72" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>0.39389115981686973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.45391476709613399</v>
       </c>
@@ -2790,8 +3024,11 @@
       <c r="J73" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>0.39132963501294227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.46679881070366702</v>
       </c>
@@ -2822,8 +3059,11 @@
       <c r="J74" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>0.3953592817396745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.45887016848364698</v>
       </c>
@@ -2854,8 +3094,11 @@
       <c r="J75" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>0.38880433248922319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.554013875123885</v>
       </c>
@@ -2885,6 +3128,9 @@
       </c>
       <c r="J76" t="s">
         <v>10</v>
+      </c>
+      <c r="K76">
+        <v>0.41125206698698252</v>
       </c>
     </row>
   </sheetData>
